--- a/biology/Botanique/Cecropia_peltata/Cecropia_peltata.xlsx
+++ b/biology/Botanique/Cecropia_peltata/Cecropia_peltata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecropia peltata
 Le coulequin, ou bois trompette (Cecropia peltata), est une espèce de plantes à fleurs de la famille des Cecropiaceae, ou des Urticaceae selon la classification phylogénétique.
@@ -514,7 +526,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coulequin, bois-trompette (trumpet tree) ou bois-canon (en raison de son tronc creux), bois de serpent (snakewood), faux-ricin, parasolier, pisse-roux. 
 </t>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce spontanée en Amérique du nord (Mexique), centrale (Belize, Costa Rica, Guatemala, Honduras, Nicaragua, Panama), Antilles (Saint-Domingue, Jamaïque, Porto Rico, Guadeloupe, Martinique), du sud (Colombie, Guyane, Guyana, Suriname, Venezuela).
 Elle s'est naturalisée dans les régions tropicales d'Afrique et d'Asie ainsi que dans les îles du Pacifique.
@@ -577,10 +593,12 @@
           <t>Usage médicinal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il était traditionnel dans les civilisations maya ou aztèque, et se retrouve dans les codex. Dans le Yucatan, Don Susanno, botaniste et spécialiste de médecine mexicaine traditionnelle travaille sur une préparation utile contre le diabète[1].
-La décoction de ses feuilles est employée contre l'asthme, l'hydropisie et les maladies du foie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était traditionnel dans les civilisations maya ou aztèque, et se retrouve dans les codex. Dans le Yucatan, Don Susanno, botaniste et spécialiste de médecine mexicaine traditionnelle travaille sur une préparation utile contre le diabète.
+La décoction de ses feuilles est employée contre l'asthme, l'hydropisie et les maladies du foie.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve dans la littérature l'espèce Cecropia peltata auct. non L., qui est en réalité l'espèce Cecropia schreberiana Miq.. Un risque de confusion est donc possible.
 </t>
